--- a/experiments/_debug/hybrid/2-gram-weights.xlsx
+++ b/experiments/_debug/hybrid/2-gram-weights.xlsx
@@ -449,833 +449,833 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'woman')</t>
+          <t>('sci', 'fi')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0396600566572238</v>
+        <v>0.03053435114503817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('low', 'budget')</t>
+          <t>('zombie', 'planet')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0339943342776204</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('waste', 'time')</t>
+          <t>('someone', 'else')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0339943342776204</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'movie')</t>
+          <t>('skeletor', 'attacks')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.028328611898017</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('mst', 'k')</t>
+          <t>('way', 'adjl')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.028328611898017</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'thing')</t>
+          <t>('video', 'game')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.028328611898017</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('camera', 'work')</t>
+          <t>('music', 'videos')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0254957507082153</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'ever')</t>
+          <t>('film', 'making')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0254957507082153</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('dick', 'jane')</t>
+          <t>('main', 'character')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0226628895184136</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'much')</t>
+          <t>('made', 'movie')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0226628895184136</v>
+        <v>0.02290076335877863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'would')</t>
+          <t>('adjl', 'like')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0198300283286119</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('really', 'really')</t>
+          <t>('title', 'cards')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0198300283286119</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('main', 'character')</t>
+          <t>('became', 'increasingly')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0169971671388102</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('r', 'rated')</t>
+          <t>('first', 'place')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0169971671388102</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('look', 'like')</t>
+          <t>('adjl', 'anime')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0169971671388102</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('really', 'bad')</t>
+          <t>('military', 'macho')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0169971671388102</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('one', 'would')</t>
+          <t>('quasi', 'military')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0169971671388102</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('great', 'movie')</t>
+          <t>('movie', 'terrible')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'film')</t>
+          <t>('opening', 'scenes')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('felt', 'like')</t>
+          <t>('dark', 'room')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('film', 'like')</t>
+          <t>('make', 'documentary')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('first', 'one')</t>
+          <t>('low', 'budget')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'bad')</t>
+          <t>('ridiculously', 'bad')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'movie')</t>
+          <t>('van', 'diem')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('character', 'development')</t>
+          <t>('film', 'could')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('rishi', 'kapoor')</t>
+          <t>('law', 'order')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('film', 'without')</t>
+          <t>('worst', 'part')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('first', 'half')</t>
+          <t>('behind', 'tree')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('waste', 'money')</t>
+          <t>('version', 'csi')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('sex', 'scenes')</t>
+          <t>('kill', 'later')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'still')</t>
+          <t>('could', 'spent')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'movie')</t>
+          <t>('money', 'good')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'even')</t>
+          <t>('special', 'effects')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('happen', 'film')</t>
+          <t>('promising', 'beginning')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('see', 'dick')</t>
+          <t>('actors', 'actresses')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('shahrukh', 'khan')</t>
+          <t>('macho', 'bs')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0141643059490085</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('bu', 'uel')</t>
+          <t>('perhaps', 'better')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('never', 'get')</t>
+          <t>('movie', 'least')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('first', 'movie')</t>
+          <t>('watching', 'movie')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('want', 'watch')</t>
+          <t>('bad', 'episode')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'bad')</t>
+          <t>('worth', 'time')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('half', 'hour')</t>
+          <t>('pretty', 'much')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('minutes', 'movie')</t>
+          <t>('dream', 'oh')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('looked', 'like')</t>
+          <t>('oh', 'dream')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('yet', 'another')</t>
+          <t>('cliched', 'predictable')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('hedy', 'lamarr')</t>
+          <t>('finished', 'watching')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('could', 'good')</t>
+          <t>('home', 'version')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('still', 'think')</t>
+          <t>('movie', 'like')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('science', 'fiction')</t>
+          <t>('mirror', 'mirror')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('awful', 'movie')</t>
+          <t>('make', 'movie')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('say', 'film')</t>
+          <t>('utility', 'worker')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('original', 'film')</t>
+          <t>('part', 'movie')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('still', 'like')</t>
+          <t>('various', 'things')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('good', 'enough')</t>
+          <t>('selma', 'blair')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('like', 'could')</t>
+          <t>('version', 'even')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('year', 'olds')</t>
+          <t>('game', 'first')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('every', 'time')</t>
+          <t>('reasons', 'one')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('say', 'movie')</t>
+          <t>('compromise', 'quality')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('mary', 'lou')</t>
+          <t>('without', 'reasons')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'acting')</t>
+          <t>('making', 'movie')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'almost')</t>
+          <t>('lauren', 'adams')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('many', 'people')</t>
+          <t>('secure', 'good')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('watching', 'movie')</t>
+          <t>('finance', 'film')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('really', 'think')</t>
+          <t>('falls', 'flat')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0113314447592068</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
   </sheetData>
@@ -1312,833 +1312,833 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('tony', 'hawk')</t>
+          <t>('love', 'story')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0831353919239905</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('pro', 'skater')</t>
+          <t>('jude', 'law')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05225653206650831</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('hawk', 'pro')</t>
+          <t>('cold', 'mountain')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05225653206650831</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('skater', 'x')</t>
+          <t>('nicole', 'kidman')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04513064133016627</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('one', 'best')</t>
+          <t>('english', 'patient')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04038004750593824</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('one', 'thing')</t>
+          <t>('crew', 'boss')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02612826603325416</v>
+        <v>0.02884615384615385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('see', 'movie')</t>
+          <t>('film', 'work')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02137767220902613</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('first', 'time')</t>
+          <t>('oscar', 'winner')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01900237529691211</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('james', 'bond')</t>
+          <t>('film', 'seen')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0166270783847981</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('great', 'job')</t>
+          <t>('love', 'affair')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0166270783847981</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('first', 'film')</t>
+          <t>('battleship', 'potemkin')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0166270783847981</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('say', 'never')</t>
+          <t>('renee', 'zellwegger')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('highly', 'recommend')</t>
+          <t>('work', 'art')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('chipmunk', 'adventure')</t>
+          <t>('believe', 'movie')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('never', 'say')</t>
+          <t>('ever', 'seen')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'made')</t>
+          <t>('film', 'everyone')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('x', 'career')</t>
+          <t>('holly', 'would')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('black', 'white')</t>
+          <t>('director', 'anthony')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('ghost', 'stories')</t>
+          <t>('one', 'best')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('get', 'see')</t>
+          <t>('civil', 'war')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('first', 'saw')</t>
+          <t>('new', 'york')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01425178147268409</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('takes', 'place')</t>
+          <t>('mick', 'molloy')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'good')</t>
+          <t>('alan', 'rickman')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('like', 'one')</t>
+          <t>('movie', 'would')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('well', 'made')</t>
+          <t>('films', 'ever')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('subject', 'matter')</t>
+          <t>('looks', 'like')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('films', 'ever')</t>
+          <t>('anthony', 'minghella')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('never', 'seen')</t>
+          <t>('existence', 'tale')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('feel', 'like')</t>
+          <t>('special', 'story')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('bobby', 'earl')</t>
+          <t>('story', 'ambiguity')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('main', 'characters')</t>
+          <t>('ambiguity', 'existence')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('never', 'heard')</t>
+          <t>('innocence', 'error')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('old', 'man')</t>
+          <t>('tale', 'kafka')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('world', 'war')</t>
+          <t>('kafka', 'style')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('anything', 'else')</t>
+          <t>('surviving', 'perpetual')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('film', 'made')</t>
+          <t>('love', 'love')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('game', 'play')</t>
+          <t>('doubtlessly', 'special')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('movies', 'ever')</t>
+          <t>('piece', 'subtle')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('hawk', 'career')</t>
+          <t>('masterpiece', 'doubtlessly')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('one', 'film')</t>
+          <t>('maybe', 'masterpiece')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('best', 'friend')</t>
+          <t>('perpetual', 'strange')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('must', 'see')</t>
+          <t>('art', 'maybe')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('gene', 'kelly')</t>
+          <t>('well', 'done')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('one', 'night')</t>
+          <t>('movie', 'well')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('star', 'trek')</t>
+          <t>('time', 'movie')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('second', 'time')</t>
+          <t>('prime', 'time')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01187648456057007</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('like', 'really')</t>
+          <t>('typical', 'prime')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('phantom', 'lady')</t>
+          <t>('conclusion', 'typical')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('seen', 'movie')</t>
+          <t>('love', 'movie')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('like', 'see')</t>
+          <t>('sin', 'frailty')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('beginning', 'end')</t>
+          <t>('ways', 'leopold')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('wagon', 'master')</t>
+          <t>('world', 'life')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('really', 'enjoyed')</t>
+          <t>('leopold', 'kessle')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('well', 'worth')</t>
+          <t>('peace', 'business')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('great', 'work')</t>
+          <t>('search', 'truth')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('young', 'woman')</t>
+          <t>('money', 'save')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('old', 'fashioned')</t>
+          <t>('couple', 'dollars')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('action', 'films')</t>
+          <t>('earlier', 'work')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('least', 'one')</t>
+          <t>('images', 'trial')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('gave', 'us')</t>
+          <t>('k', 'images')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('works', 'well')</t>
+          <t>('joseph', 'k')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('jack', 'frost')</t>
+          <t>('another', 'joseph')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'guys')</t>
+          <t>('kessle', 'another')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('wife', 'daughter')</t>
+          <t>('victory', 'surviving')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.009501187648456057</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/_debug/hybrid/2-gram-weights.xlsx
+++ b/experiments/_debug/hybrid/2-gram-weights.xlsx
@@ -449,833 +449,833 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('sci', 'fi')</t>
+          <t>('blood', 'type')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03053435114503817</v>
+        <v>0.03267973856209151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('zombie', 'planet')</t>
+          <t>('past', 'dead')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('someone', 'else')</t>
+          <t>('half', 'past')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('skeletor', 'attacks')</t>
+          <t>('torture', 'porn')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('way', 'adjl')</t>
+          <t>('see', 'movie')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('video', 'game')</t>
+          <t>('much', 'better')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('music', 'videos')</t>
+          <t>('films', 'like')</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('film', 'making')</t>
+          <t>('low', 'budget')</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('main', 'character')</t>
+          <t>('funny', 'dialogue')</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('made', 'movie')</t>
+          <t>('snoop', 'dogg')</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('adjl', 'like')</t>
+          <t>('take', 'one')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('title', 'cards')</t>
+          <t>('black', 'people')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('became', 'increasingly')</t>
+          <t>('del', 'vagone')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('first', 'place')</t>
+          <t>('vagone', 'letto')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('adjl', 'anime')</t>
+          <t>('ragazza', 'del')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('military', 'macho')</t>
+          <t>('la', 'ragazza')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('quasi', 'military')</t>
+          <t>('film', 'really')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'terrible')</t>
+          <t>('anything', 'else')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('opening', 'scenes')</t>
+          <t>('south', 'africa')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('dark', 'room')</t>
+          <t>('opening', 'scenes')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('make', 'documentary')</t>
+          <t>('film', 'made')</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('low', 'budget')</t>
+          <t>('bad', 'ones')</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('ridiculously', 'bad')</t>
+          <t>('characters', 'introduced')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('van', 'diem')</t>
+          <t>('many', 'characters')</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('film', 'could')</t>
+          <t>('male', 'passengers')</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('law', 'order')</t>
+          <t>('movie', 'action')</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'part')</t>
+          <t>('seen', 'enough')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('behind', 'tree')</t>
+          <t>('like', 'film')</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('version', 'csi')</t>
+          <t>('anyone', 'seen')</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('kill', 'later')</t>
+          <t>('hard', 'core')</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('could', 'spent')</t>
+          <t>('trying', 'serious')</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('money', 'good')</t>
+          <t>('lot', 'dialogue')</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('special', 'effects')</t>
+          <t>('make', 'way')</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('promising', 'beginning')</t>
+          <t>('killer', 'kill')</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('actors', 'actresses')</t>
+          <t>('one', 'scene')</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('macho', 'bs')</t>
+          <t>('action', 'vehicles')</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('perhaps', 'better')</t>
+          <t>('saw', 'film')</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'least')</t>
+          <t>('movie', 'bad')</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('watching', 'movie')</t>
+          <t>('soap', 'opera')</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'episode')</t>
+          <t>('whole', 'lot')</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('worth', 'time')</t>
+          <t>('would', 'think')</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'much')</t>
+          <t>('picture', 'director')</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('dream', 'oh')</t>
+          <t>('estate', 'agency')</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('oh', 'dream')</t>
+          <t>('well', 'intentioned')</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('cliched', 'predictable')</t>
+          <t>('action', 'films')</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('finished', 'watching')</t>
+          <t>('rented', 'movie')</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('home', 'version')</t>
+          <t>('disturbing', 'facts')</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'like')</t>
+          <t>('seagal', 'character')</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('mirror', 'mirror')</t>
+          <t>('action', 'movie')</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('make', 'movie')</t>
+          <t>('bad', 'movie')</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('utility', 'worker')</t>
+          <t>('better', 'action')</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('part', 'movie')</t>
+          <t>('film', 'even')</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('various', 'things')</t>
+          <t>('way', 'many')</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('selma', 'blair')</t>
+          <t>('serious', 'thriller')</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('version', 'even')</t>
+          <t>('acting', 'career')</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('game', 'first')</t>
+          <t>('middle', 'aged')</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('reasons', 'one')</t>
+          <t>('character', 'film')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('compromise', 'quality')</t>
+          <t>('real', 'estate')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('without', 'reasons')</t>
+          <t>('movie', 'like')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('making', 'movie')</t>
+          <t>('terrible', 'story')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('lauren', 'adams')</t>
+          <t>('people', 'struggle')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('secure', 'good')</t>
+          <t>('story', 'line')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('finance', 'film')</t>
+          <t>('make', 'movie')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('falls', 'flat')</t>
+          <t>('career', 'also')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
   </sheetData>
@@ -1312,89 +1312,89 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('love', 'story')</t>
+          <t>('wallace', 'gromit')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.07051282051282051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('jude', 'law')</t>
+          <t>('wrong', 'trousers')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03205128205128205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('cold', 'mountain')</t>
+          <t>('mute', 'witness')</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('nicole', 'kidman')</t>
+          <t>('fast', 'food')</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('english', 'patient')</t>
+          <t>('horror', 'film')</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('crew', 'boss')</t>
+          <t>('hidden', 'agenda')</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('film', 'work')</t>
+          <t>('curse', 'rabbit')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0.01923076923076923</v>
@@ -1403,11 +1403,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('oscar', 'winner')</t>
+          <t>('ali', 'khan')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>0.01923076923076923</v>
@@ -1416,11 +1416,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('film', 'seen')</t>
+          <t>('wicked', 'little')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0.01923076923076923</v>
@@ -1429,11 +1429,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('love', 'affair')</t>
+          <t>('small', 'town')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0.01923076923076923</v>
@@ -1442,11 +1442,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('battleship', 'potemkin')</t>
+          <t>('abhay', 'deol')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0.01923076923076923</v>
@@ -1455,11 +1455,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('renee', 'zellwegger')</t>
+          <t>('bad', 'guys')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0.01923076923076923</v>
@@ -1468,11 +1468,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('work', 'art')</t>
+          <t>('good', 'see')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0.01923076923076923</v>
@@ -1481,11 +1481,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('believe', 'movie')</t>
+          <t>('food', 'grifters')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0.01923076923076923</v>
@@ -1494,11 +1494,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'seen')</t>
+          <t>('soha', 'ali')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0.01923076923076923</v>
@@ -1507,638 +1507,638 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('film', 'everyone')</t>
+          <t>('possible', 'deter')</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('holly', 'would')</t>
+          <t>('perry', 'smith')</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('director', 'anthony')</t>
+          <t>('way', 'back')</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('one', 'best')</t>
+          <t>('though', 'film')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('civil', 'war')</t>
+          <t>('ghost', 'shell')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('new', 'york')</t>
+          <t>('could', 'possibly')</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('mick', 'molloy')</t>
+          <t>('shinji', 'higuchi')</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('alan', 'rickman')</t>
+          <t>('registration', 'office')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'would')</t>
+          <t>('role', 'good')</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('films', 'ever')</t>
+          <t>('deter', 'men')</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('looks', 'like')</t>
+          <t>('koichi', 'yamadera')</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('anthony', 'minghella')</t>
+          <t>('string', 'theory')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('existence', 'tale')</t>
+          <t>('marriage', 'registration')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('special', 'story')</t>
+          <t>('katsuya', 'terada')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('story', 'ambiguity')</t>
+          <t>('great', 'even')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('ambiguity', 'existence')</t>
+          <t>('years', 'later')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('innocence', 'error')</t>
+          <t>('live', 'action')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('tale', 'kafka')</t>
+          <t>('kenji', 'kawai')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('kafka', 'style')</t>
+          <t>('stop', 'motion')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('surviving', 'perpetual')</t>
+          <t>('mamoru', 'oshii')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('love', 'love')</t>
+          <t>('may', 'actually')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('doubtlessly', 'special')</t>
+          <t>('good', 'moments')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('piece', 'subtle')</t>
+          <t>('gromit', 'curse')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('masterpiece', 'doubtlessly')</t>
+          <t>('fundamental', 'forces')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('maybe', 'masterpiece')</t>
+          <t>('master', 'equation')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('perpetual', 'strange')</t>
+          <t>('film', 'also')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('art', 'maybe')</t>
+          <t>('universe', 'live')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('well', 'done')</t>
+          <t>('tim', 'burton')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'well')</t>
+          <t>('burton', 'brought')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('time', 'movie')</t>
+          <t>('bruce', 'wayne')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('prime', 'time')</t>
+          <t>('see', 'dolph')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('typical', 'prime')</t>
+          <t>('forces', 'know')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('conclusion', 'typical')</t>
+          <t>('nuclear', 'force')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('love', 'movie')</t>
+          <t>('toshio', 'suzuki')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('sin', 'frailty')</t>
+          <t>('wonderful', 'job')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('ways', 'leopold')</t>
+          <t>('f', 'tiche')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('world', 'life')</t>
+          <t>('falls', 'love')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('leopold', 'kessle')</t>
+          <t>('last', 'years')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('peace', 'business')</t>
+          <t>('come', 'year')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('search', 'truth')</t>
+          <t>('point', 'made')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('money', 'save')</t>
+          <t>('hickok', 'smith')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('couple', 'dollars')</t>
+          <t>('lives', 'hickok')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('earlier', 'work')</t>
+          <t>('clutter', 'family')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('images', 'trial')</t>
+          <t>('art', 'direction')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('k', 'images')</t>
+          <t>('charm', 'con')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('joseph', 'k')</t>
+          <t>('lives', 'fast')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('another', 'joseph')</t>
+          <t>('kids', 'adults')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('kessle', 'another')</t>
+          <t>('yet', 'fully')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('victory', 'surviving')</t>
+          <t>('snuff', 'movie')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/_debug/hybrid/2-gram-weights.xlsx
+++ b/experiments/_debug/hybrid/2-gram-weights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,20 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03267973856209151</v>
+        <v>0.02016129032258064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('past', 'dead')</t>
+          <t>('much', 'better')</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="4">
@@ -482,20 +482,20 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('torture', 'porn')</t>
+          <t>('past', 'dead')</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="6">
@@ -508,163 +508,163 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('much', 'better')</t>
+          <t>('torture', 'porn')</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('films', 'like')</t>
+          <t>('snoop', 'dogg')</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('low', 'budget')</t>
+          <t>('funny', 'dialogue')</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('funny', 'dialogue')</t>
+          <t>('films', 'like')</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('snoop', 'dogg')</t>
+          <t>('la', 'ragazza')</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('take', 'one')</t>
+          <t>('ragazza', 'del')</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('black', 'people')</t>
+          <t>('del', 'vagone')</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('del', 'vagone')</t>
+          <t>('vagone', 'letto')</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('vagone', 'letto')</t>
+          <t>('low', 'budget')</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('ragazza', 'del')</t>
+          <t>('take', 'one')</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('la', 'ragazza')</t>
+          <t>('film', 'really')</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('film', 'really')</t>
+          <t>('black', 'people')</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="19">
@@ -677,605 +677,1385 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('south', 'africa')</t>
+          <t>('lot', 'dialogue')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('opening', 'scenes')</t>
+          <t>('absolutely', 'horrible')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('film', 'made')</t>
+          <t>('ended', 'acting')</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'ones')</t>
+          <t>('acting', 'career')</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('characters', 'introduced')</t>
+          <t>('know', 'know')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('many', 'characters')</t>
+          <t>('spoilers', 'br')</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('male', 'passengers')</t>
+          <t>('movie', 'would')</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'action')</t>
+          <t>('br', 'understand')</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('seen', 'enough')</t>
+          <t>('seagal', 'character')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('like', 'film')</t>
+          <t>('better', 'action')</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('anyone', 'seen')</t>
+          <t>('would', 'think')</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('hard', 'core')</t>
+          <t>('like', 'film')</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('trying', 'serious')</t>
+          <t>('many', 'characters')</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('lot', 'dialogue')</t>
+          <t>('characters', 'introduced')</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('make', 'way')</t>
+          <t>('character', 'film')</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('killer', 'kill')</t>
+          <t>('movie', 'action')</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('one', 'scene')</t>
+          <t>('say', 'dead')</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('action', 'vehicles')</t>
+          <t>('disturbing', 'facts')</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('saw', 'film')</t>
+          <t>('feel', 'like')</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'bad')</t>
+          <t>('well', 'intentioned')</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('soap', 'opera')</t>
+          <t>('steven', 'seagal')</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'lot')</t>
+          <t>('action', 'films')</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('would', 'think')</t>
+          <t>('good', 'movie')</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('picture', 'director')</t>
+          <t>('br', 'good')</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('estate', 'agency')</t>
+          <t>('like', 'see')</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('well', 'intentioned')</t>
+          <t>('middle', 'aged')</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('action', 'films')</t>
+          <t>('saw', 'film')</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('rented', 'movie')</t>
+          <t>('film', 'feel')</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('disturbing', 'facts')</t>
+          <t>('picture', 'director')</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('seagal', 'character')</t>
+          <t>('every', 'time')</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('action', 'movie')</t>
+          <t>('film', 'made')</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'movie')</t>
+          <t>('br', 'sure')</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('better', 'action')</t>
+          <t>('koen', 'wouters')</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('film', 'even')</t>
+          <t>('done', 'movie')</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('way', 'many')</t>
+          <t>('first', 'minutes')</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('serious', 'thriller')</t>
+          <t>('entire', 'movie')</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('acting', 'career')</t>
+          <t>('would', 'describe')</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('middle', 'aged')</t>
+          <t>('rented', 'movie')</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('character', 'film')</t>
+          <t>('one', 'scene')</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('real', 'estate')</t>
+          <t>('terrible', 'story')</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'like')</t>
+          <t>('wrong', 'way')</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('terrible', 'story')</t>
+          <t>('story', 'line')</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('people', 'struggle')</t>
+          <t>('trying', 'serious')</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('story', 'line')</t>
+          <t>('movie', 'like')</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('make', 'movie')</t>
+          <t>('br', 'every')</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
+          <t>('film', 'even')</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>('bad', 'movie')</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
           <t>('career', 'also')</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.0130718954248366</v>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>('soap', 'opera')</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>('film', 'br')</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>('make', 'way')</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>('movie', 'bad')</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>('anyone', 'seen')</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>('bad', 'ones')</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>('opening', 'scenes')</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>('br', 'end')</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>('male', 'passengers')</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>('better', 'br')</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>('action', 'vehicles')</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>('whole', 'lot')</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>('estate', 'agency')</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>('south', 'africa')</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>('plays', 'role')</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>('film', 'seems')</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>('make', 'movie')</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>('hard', 'core')</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>('way', 'many')</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>('real', 'estate')</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>('digest', 'br')</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>('serious', 'thriller')</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>('dolph', 'lundgren')</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>('decided', 'make')</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>('people', 'struggle')</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>('killer', 'kill')</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>('bad', 'movies')</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>('make', 'sure')</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>('bad', 'br')</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>('seen', 'enough')</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>('br', 'probably')</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>('movie', 'br')</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>('okay', 'take')</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.008064516129032258</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>('prove', 'always')</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>('still', 'trying')</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>('beautiful', 'still')</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>('still', 'beautiful')</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>('movie', 'still')</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>('always', 'sort')</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>('budget', 'b')</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>('sort', 'low')</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>('material', 'always')</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>('act', 'unfortunate')</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>('trying', 'act')</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>('create', 'viewer')</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>('unfortunate', 'material')</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>('saw', 'last')</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>('perhaps', 'reduction')</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>('show', 'dozens')</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>('reduction', 'surgery')</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>('annoying', 'narration')</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>('narration', 'inability')</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>('inability', 'create')</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>('viewer', 'interest')</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>('interest', 'br')</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>('never', 'seems')</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>('seems', 'get')</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.004032258064516129</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>('note', 'ms')</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.004032258064516129</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07051282051282051</v>
+        <v>0.04489795918367347</v>
       </c>
     </row>
     <row r="3">
@@ -1332,33 +2112,33 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03205128205128205</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('mute', 'witness')</t>
+          <t>('fast', 'food')</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.0163265306122449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('fast', 'food')</t>
+          <t>('mute', 'witness')</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.0163265306122449</v>
       </c>
     </row>
     <row r="6">
@@ -1371,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.0163265306122449</v>
       </c>
     </row>
     <row r="7">
@@ -1384,98 +2164,98 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('curse', 'rabbit')</t>
+          <t>('ali', 'khan')</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('ali', 'khan')</t>
+          <t>('soha', 'ali')</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('wicked', 'little')</t>
+          <t>('bad', 'guys')</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('small', 'town')</t>
+          <t>('abhay', 'deol')</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('abhay', 'deol')</t>
+          <t>('wicked', 'little')</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'guys')</t>
+          <t>('good', 'see')</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('good', 'see')</t>
+          <t>('curse', 'rabbit')</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="15">
@@ -1488,657 +2268,1437 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('soha', 'ali')</t>
+          <t>('small', 'town')</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.01224489795918367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('possible', 'deter')</t>
+          <t>('see', 'dolph')</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('perry', 'smith')</t>
+          <t>('live', 'action')</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('way', 'back')</t>
+          <t>('universe', 'live')</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('though', 'film')</t>
+          <t>('tim', 'burton')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('ghost', 'shell')</t>
+          <t>('stop', 'motion')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('could', 'possibly')</t>
+          <t>('kenji', 'kawai')</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('shinji', 'higuchi')</t>
+          <t>('master', 'equation')</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('registration', 'office')</t>
+          <t>('fundamental', 'forces')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('role', 'good')</t>
+          <t>('charm', 'con')</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('deter', 'men')</t>
+          <t>('movie', 'come')</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('koichi', 'yamadera')</t>
+          <t>('role', 'good')</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('string', 'theory')</t>
+          <t>('come', 'year')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('marriage', 'registration')</t>
+          <t>('film', 'also')</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('katsuya', 'terada')</t>
+          <t>('love', 'interest')</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('great', 'even')</t>
+          <t>('little', 'things')</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('years', 'later')</t>
+          <t>('shayan', 'munshi')</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('live', 'action')</t>
+          <t>('nuclear', 'force')</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('kenji', 'kawai')</t>
+          <t>('forces', 'know')</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('stop', 'motion')</t>
+          <t>('action', 'man')</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('mamoru', 'oshii')</t>
+          <t>('shinji', 'higuchi')</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('may', 'actually')</t>
+          <t>('nowhere', 'near')</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('good', 'moments')</t>
+          <t>('amazing', 'lives')</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('gromit', 'curse')</t>
+          <t>('nick', 'park')</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('fundamental', 'forces')</t>
+          <t>('away', 'math')</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('master', 'equation')</t>
+          <t>('even', 'better')</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('film', 'also')</t>
+          <t>('dolph', 'looking')</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('universe', 'live')</t>
+          <t>('lives', 'fast')</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('tim', 'burton')</t>
+          <t>('br', 'director')</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('burton', 'brought')</t>
+          <t>('full', 'length')</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('bruce', 'wayne')</t>
+          <t>('burton', 'brought')</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('see', 'dolph')</t>
+          <t>('length', 'wallace')</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('forces', 'know')</t>
+          <t>('animation', 'br')</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('nuclear', 'force')</t>
+          <t>('visual', 'humor')</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('toshio', 'suzuki')</t>
+          <t>('last', 'years')</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('wonderful', 'job')</t>
+          <t>('chicken', 'run')</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('f', 'tiche')</t>
+          <t>('mamoru', 'oshii')</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('falls', 'love')</t>
+          <t>('tachigui', 'amazing')</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('last', 'years')</t>
+          <t>('yet', 'fully')</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('come', 'year')</t>
+          <t>('toshio', 'suzuki')</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('point', 'made')</t>
+          <t>('great', 'even')</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('hickok', 'smith')</t>
+          <t>('perry', 'smith')</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('lives', 'hickok')</t>
+          <t>('falls', 'love')</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('clutter', 'family')</t>
+          <t>('smith', 'br')</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('art', 'direction')</t>
+          <t>('string', 'theory')</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('charm', 'con')</t>
+          <t>('br', 'interesting')</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('lives', 'fast')</t>
+          <t>('hickok', 'smith')</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('kids', 'adults')</t>
+          <t>('lives', 'hickok')</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('yet', 'fully')</t>
+          <t>('clutter', 'family')</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
+          <t>('art', 'direction')</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>('tells', 'story')</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>('green', 'constantly')</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>('constantly', 'points')</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>('good', 'moments')</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>('kids', 'adults')</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>('almost', 'every')</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>('gromit', 'curse')</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>('registration', 'office')</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>('two', 'immature')</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
           <t>('snuff', 'movie')</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.01282051282051282</v>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>('br', 'cast')</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>('katsuya', 'terada')</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>('possible', 'deter')</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>('could', 'possibly')</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>('deter', 'men')</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>('wonderful', 'job')</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>('br', 'film')</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>('marriage', 'registration')</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>('bruce', 'wayne')</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>('point', 'made')</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>('though', 'film')</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>('movie', 'freak')</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>('years', 'later')</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>('koichi', 'yamadera')</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>('way', 'back')</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>('f', 'tiche')</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>('may', 'actually')</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>('slasher', 'movie')</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>('ghost', 'shell')</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.00816326530612245</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>('big', 'third')</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>('grand', 'day')</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>('day', 'wrong')</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>('trousers', 'also')</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>('also', 'close')</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>('close', 'shave')</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>('shave', 'best')</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>('best', 'animated')</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>('success', 'film')</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>('third', 'wallace')</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>('gromit', 'short')</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>('park', 'finally')</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>('picture', 'academy')</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>('academy', 'awards')</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>('awards', 'perhaps')</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>('perhaps', 'success')</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>('film', 'ultimately')</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>('animated', 'footage')</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>('makes', 'grand')</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>('u', 'k')</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>('claymation', 'makes')</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>('footage', 'ever')</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>('man', 'u')</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>('drove', 'park')</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>('k', 'yet')</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>('yet', 'impact')</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>('impact', 'united')</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>('united', 'states')</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>('states', 'big')</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>('put', 'television')</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.004081632653061225</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>('long', 'know')</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.004081632653061225</v>
       </c>
     </row>
   </sheetData>
